--- a/Exploratory Analysis/Statistics/ResListings_Statistics_2018to2019.xlsx
+++ b/Exploratory Analysis/Statistics/ResListings_Statistics_2018to2019.xlsx
@@ -491,28 +491,28 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>448081.8181818182</v>
+        <v>465890</v>
       </c>
       <c r="D2">
-        <v>395909.0909090909</v>
+        <v>410500</v>
       </c>
       <c r="E2">
         <v>900</v>
       </c>
       <c r="F2">
-        <v>439000</v>
+        <v>454450</v>
       </c>
       <c r="G2">
-        <v>375000</v>
+        <v>382500</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J2">
-        <v>439.9</v>
+        <v>456.11</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -521,28 +521,28 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>422446.6</v>
+        <v>478308.25</v>
       </c>
       <c r="D3">
-        <v>403200</v>
+        <v>470666.6666666667</v>
       </c>
       <c r="E3">
         <v>1300</v>
       </c>
       <c r="F3">
-        <v>489800</v>
+        <v>499000</v>
       </c>
       <c r="G3">
-        <v>475000</v>
+        <v>487500</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J3">
-        <v>310.15</v>
+        <v>362.05</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -934,10 +934,10 @@
         <v>18</v>
       </c>
       <c r="C3">
-        <v>456781.8181818182</v>
+        <v>462560</v>
       </c>
       <c r="D3">
-        <v>416890.9090909091</v>
+        <v>433580</v>
       </c>
       <c r="E3">
         <v>900</v>
@@ -946,16 +946,16 @@
         <v>480000</v>
       </c>
       <c r="G3">
-        <v>459800</v>
+        <v>469900</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J3">
-        <v>463.21</v>
+        <v>481.76</v>
       </c>
     </row>
     <row r="4" spans="1:10">
